--- a/ObservedData_GCD_ 2018-2021.xlsx
+++ b/ObservedData_GCD_ 2018-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DD62C-4780-4AD6-93BA-B0692719D356}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F2AA3-3D9B-4DBA-AB0A-864F5D85A172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1E1266B7-375D-4859-BA1C-21FE9CB655AF}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1E1266B7-375D-4859-BA1C-21FE9CB655AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6310FBF7-7A28-4738-9845-41A0F88A077B}">
-  <dimension ref="A1:M1185"/>
+  <dimension ref="A1:O1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1978,7 +1978,7 @@
         <v>12283</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>43148</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>12234</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>43149</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>12037</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>43150</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>12337</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>43151</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>12071</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>43152</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>43153</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>11960</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <v>43154</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>11818</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>43155</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>11836</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>43156</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>11534</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <v>43157</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>11812</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <v>43158</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <v>43159</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>11784</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <v>43160</v>
       </c>
@@ -2397,8 +2397,12 @@
         <f>C61-C91</f>
         <v>3.6900000000000546</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O61">
+        <f>AVERAGE(D61:D91)</f>
+        <v>513.90322580645159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <v>43161</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
         <v>43162</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
         <v>43163</v>
       </c>

--- a/ObservedData_GCD_ 2018-2021.xlsx
+++ b/ObservedData_GCD_ 2018-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F2AA3-3D9B-4DBA-AB0A-864F5D85A172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894BF7BA-A028-4D72-99A6-6D6FF41CDD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1E1266B7-375D-4859-BA1C-21FE9CB655AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1E1266B7-375D-4859-BA1C-21FE9CB655AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Spillway Release (cfs)</t>
+  </si>
+  <si>
+    <t>Difference b/w Power release and Total Release</t>
+  </si>
+  <si>
+    <t>Change in Reservior elevation during each month (ft)</t>
+  </si>
+  <si>
+    <t>Average monthly evap (AF)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
   <dimension ref="A1:O1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -440,9 +449,12 @@
     <col min="8" max="8" width="18.20703125" customWidth="1"/>
     <col min="9" max="9" width="17.62890625" customWidth="1"/>
     <col min="10" max="10" width="13.68359375" customWidth="1"/>
+    <col min="12" max="12" width="14.68359375" customWidth="1"/>
+    <col min="13" max="13" width="17.3125" customWidth="1"/>
+    <col min="15" max="15" width="12.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +485,18 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>43101</v>
       </c>
@@ -505,8 +527,12 @@
       <c r="J2" s="3">
         <v>11759</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2">
+        <f>I2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>43102</v>
       </c>
@@ -537,8 +563,12 @@
       <c r="J3" s="3">
         <v>13022</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">I3-F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>43103</v>
       </c>
@@ -569,8 +599,12 @@
       <c r="J4" s="3">
         <v>13011</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>43104</v>
       </c>
@@ -601,8 +635,12 @@
       <c r="J5" s="3">
         <v>12970</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>43105</v>
       </c>
@@ -633,8 +671,12 @@
       <c r="J6" s="3">
         <v>13048</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>43106</v>
       </c>
@@ -665,8 +707,12 @@
       <c r="J7" s="3">
         <v>12122</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>43107</v>
       </c>
@@ -697,8 +743,12 @@
       <c r="J8" s="3">
         <v>11523</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>43108</v>
       </c>
@@ -729,8 +779,12 @@
       <c r="J9" s="3">
         <v>13106</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>43109</v>
       </c>
@@ -761,8 +815,12 @@
       <c r="J10" s="3">
         <v>13055</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>43110</v>
       </c>
@@ -793,8 +851,12 @@
       <c r="J11" s="3">
         <v>12957</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>43111</v>
       </c>
@@ -825,8 +887,12 @@
       <c r="J12" s="3">
         <v>12962</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>43112</v>
       </c>
@@ -857,8 +923,12 @@
       <c r="J13" s="3">
         <v>12961</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>43113</v>
       </c>
@@ -889,8 +959,12 @@
       <c r="J14" s="3">
         <v>12300</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>43114</v>
       </c>
@@ -921,8 +995,12 @@
       <c r="J15" s="3">
         <v>11801</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>43115</v>
       </c>
@@ -953,8 +1031,12 @@
       <c r="J16" s="3">
         <v>13101</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>43116</v>
       </c>
@@ -985,8 +1067,12 @@
       <c r="J17" s="3">
         <v>13184</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -1017,8 +1103,12 @@
       <c r="J18" s="3">
         <v>13051</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>43118</v>
       </c>
@@ -1049,8 +1139,12 @@
       <c r="J19" s="3">
         <v>12901</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>43119</v>
       </c>
@@ -1081,8 +1175,12 @@
       <c r="J20" s="3">
         <v>12984</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>43120</v>
       </c>
@@ -1113,8 +1211,12 @@
       <c r="J21" s="3">
         <v>12076</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>43121</v>
       </c>
@@ -1145,8 +1247,12 @@
       <c r="J22" s="3">
         <v>11643</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>43122</v>
       </c>
@@ -1177,8 +1283,12 @@
       <c r="J23" s="3">
         <v>13060</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>43123</v>
       </c>
@@ -1209,8 +1319,12 @@
       <c r="J24" s="3">
         <v>13065</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>43124</v>
       </c>
@@ -1241,8 +1355,12 @@
       <c r="J25" s="3">
         <v>13163</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>43125</v>
       </c>
@@ -1273,8 +1391,12 @@
       <c r="J26" s="3">
         <v>13132</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>43126</v>
       </c>
@@ -1305,8 +1427,12 @@
       <c r="J27" s="3">
         <v>12830</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>43127</v>
       </c>
@@ -1337,8 +1463,12 @@
       <c r="J28" s="3">
         <v>11780</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>43128</v>
       </c>
@@ -1369,8 +1499,12 @@
       <c r="J29" s="3">
         <v>11628</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>43129</v>
       </c>
@@ -1401,8 +1535,12 @@
       <c r="J30" s="3">
         <v>13077</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>43130</v>
       </c>
@@ -1433,8 +1571,12 @@
       <c r="J31" s="3">
         <v>13176</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>43131</v>
       </c>
@@ -1465,8 +1607,12 @@
       <c r="J32" s="3">
         <v>13128</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>43132</v>
       </c>
@@ -1497,8 +1643,12 @@
       <c r="J33" s="3">
         <v>11719</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>43133</v>
       </c>
@@ -1529,8 +1679,12 @@
       <c r="J34" s="3">
         <v>12023</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>43134</v>
       </c>
@@ -1561,8 +1715,12 @@
       <c r="J35" s="3">
         <v>11580</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>43135</v>
       </c>
@@ -1593,8 +1751,12 @@
       <c r="J36" s="3">
         <v>11712</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>43136</v>
       </c>
@@ -1625,8 +1787,12 @@
       <c r="J37" s="3">
         <v>11650</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>43137</v>
       </c>
@@ -1657,8 +1823,12 @@
       <c r="J38" s="3">
         <v>12059</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>43138</v>
       </c>
@@ -1689,8 +1859,12 @@
       <c r="J39" s="3">
         <v>12106</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>43139</v>
       </c>
@@ -1721,8 +1895,12 @@
       <c r="J40" s="3">
         <v>12059</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>43140</v>
       </c>
@@ -1753,8 +1931,12 @@
       <c r="J41" s="3">
         <v>12095</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>43141</v>
       </c>
@@ -1785,8 +1967,12 @@
       <c r="J42" s="3">
         <v>11970</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>43142</v>
       </c>
@@ -1817,8 +2003,12 @@
       <c r="J43" s="3">
         <v>11746</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>43143</v>
       </c>
@@ -1849,8 +2039,12 @@
       <c r="J44" s="3">
         <v>12139</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>43144</v>
       </c>
@@ -1881,8 +2075,12 @@
       <c r="J45" s="3">
         <v>12137</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>43145</v>
       </c>
@@ -1913,8 +2111,12 @@
       <c r="J46" s="3">
         <v>12080</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>43146</v>
       </c>
@@ -1945,8 +2147,12 @@
       <c r="J47" s="3">
         <v>12141</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>43147</v>
       </c>
@@ -1976,6 +2182,10 @@
       </c>
       <c r="J48" s="3">
         <v>12283</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2009,6 +2219,10 @@
       <c r="J49" s="3">
         <v>12234</v>
       </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
@@ -2041,6 +2255,10 @@
       <c r="J50" s="3">
         <v>12037</v>
       </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
@@ -2073,6 +2291,10 @@
       <c r="J51" s="3">
         <v>12337</v>
       </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
@@ -2105,6 +2327,10 @@
       <c r="J52" s="3">
         <v>12071</v>
       </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
@@ -2137,6 +2363,10 @@
       <c r="J53" s="3">
         <v>12000</v>
       </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
@@ -2169,6 +2399,10 @@
       <c r="J54" s="3">
         <v>11960</v>
       </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
@@ -2201,6 +2435,10 @@
       <c r="J55" s="3">
         <v>11818</v>
       </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
@@ -2233,6 +2471,10 @@
       <c r="J56" s="3">
         <v>11836</v>
       </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
@@ -2265,6 +2507,10 @@
       <c r="J57" s="3">
         <v>11534</v>
       </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
@@ -2297,6 +2543,10 @@
       <c r="J58" s="3">
         <v>11812</v>
       </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
@@ -2329,6 +2579,10 @@
       <c r="J59" s="3">
         <v>12012</v>
       </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
@@ -2361,6 +2615,10 @@
       <c r="J60" s="3">
         <v>11784</v>
       </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
@@ -2394,8 +2652,8 @@
         <v>11471</v>
       </c>
       <c r="M61">
-        <f>C61-C91</f>
-        <v>3.6900000000000546</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O61">
         <f>AVERAGE(D61:D91)</f>
@@ -2433,6 +2691,10 @@
       <c r="J62" s="3">
         <v>11525</v>
       </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
@@ -2465,6 +2727,10 @@
       <c r="J63" s="3">
         <v>11145</v>
       </c>
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
@@ -2497,8 +2763,12 @@
       <c r="J64" s="3">
         <v>10401</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
         <v>43164</v>
       </c>
@@ -2529,8 +2799,12 @@
       <c r="J65" s="3">
         <v>12119</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
         <v>43165</v>
       </c>
@@ -2561,8 +2835,12 @@
       <c r="J66" s="3">
         <v>12378</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
         <v>43166</v>
       </c>
@@ -2593,8 +2871,12 @@
       <c r="J67" s="3">
         <v>12147</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="1">I67-F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
         <v>43167</v>
       </c>
@@ -2625,8 +2907,12 @@
       <c r="J68" s="3">
         <v>12101</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <v>43168</v>
       </c>
@@ -2657,8 +2943,12 @@
       <c r="J69" s="3">
         <v>11912</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
         <v>43169</v>
       </c>
@@ -2689,8 +2979,12 @@
       <c r="J70" s="3">
         <v>10986</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2">
         <v>43170</v>
       </c>
@@ -2721,8 +3015,12 @@
       <c r="J71" s="3">
         <v>10376</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2">
         <v>43171</v>
       </c>
@@ -2753,8 +3051,12 @@
       <c r="J72" s="3">
         <v>12034</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2">
         <v>43172</v>
       </c>
@@ -2785,8 +3087,12 @@
       <c r="J73" s="3">
         <v>11315</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2">
         <v>43173</v>
       </c>
@@ -2817,8 +3123,12 @@
       <c r="J74" s="3">
         <v>12150</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
         <v>43174</v>
       </c>
@@ -2849,8 +3159,12 @@
       <c r="J75" s="3">
         <v>12214</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2">
         <v>43175</v>
       </c>
@@ -2881,8 +3195,12 @@
       <c r="J76" s="3">
         <v>12176</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2">
         <v>43176</v>
       </c>
@@ -2913,8 +3231,12 @@
       <c r="J77" s="3">
         <v>11416</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
         <v>43177</v>
       </c>
@@ -2945,8 +3267,12 @@
       <c r="J78" s="3">
         <v>10506</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2">
         <v>43178</v>
       </c>
@@ -2977,8 +3303,12 @@
       <c r="J79" s="3">
         <v>12006</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
         <v>43179</v>
       </c>
@@ -3008,6 +3338,10 @@
       </c>
       <c r="J80" s="3">
         <v>12504</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3041,6 +3375,10 @@
       <c r="J81" s="3">
         <v>12349</v>
       </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
@@ -3073,6 +3411,10 @@
       <c r="J82" s="3">
         <v>12211</v>
       </c>
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2">
@@ -3105,6 +3447,10 @@
       <c r="J83" s="3">
         <v>12304</v>
       </c>
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
@@ -3137,6 +3483,10 @@
       <c r="J84" s="3">
         <v>11380</v>
       </c>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2">
@@ -3169,6 +3519,10 @@
       <c r="J85" s="3">
         <v>10620</v>
       </c>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
@@ -3201,6 +3555,10 @@
       <c r="J86" s="3">
         <v>12146</v>
       </c>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2">
@@ -3233,6 +3591,10 @@
       <c r="J87" s="3">
         <v>12044</v>
       </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
@@ -3265,6 +3627,10 @@
       <c r="J88" s="3">
         <v>12165</v>
       </c>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2">
@@ -3297,6 +3663,10 @@
       <c r="J89" s="3">
         <v>12124</v>
       </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2">
@@ -3329,6 +3699,10 @@
       <c r="J90" s="3">
         <v>12135</v>
       </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2">
@@ -3361,6 +3735,10 @@
       <c r="J91" s="3">
         <v>11437</v>
       </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
@@ -3394,8 +3772,8 @@
         <v>9072</v>
       </c>
       <c r="M92">
-        <f>C93-C121</f>
-        <v>2.7100000000000364</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3429,6 +3807,10 @@
       <c r="J93" s="3">
         <v>11054</v>
       </c>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2">
@@ -3461,6 +3843,10 @@
       <c r="J94" s="3">
         <v>10978</v>
       </c>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2">
@@ -3493,6 +3879,10 @@
       <c r="J95" s="3">
         <v>10740</v>
       </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2">
@@ -3525,8 +3915,12 @@
       <c r="J96" s="3">
         <v>11062</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2">
         <v>43196</v>
       </c>
@@ -3557,8 +3951,12 @@
       <c r="J97" s="3">
         <v>10674</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2">
         <v>43197</v>
       </c>
@@ -3589,8 +3987,12 @@
       <c r="J98" s="3">
         <v>10924</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2">
         <v>43198</v>
       </c>
@@ -3621,8 +4023,12 @@
       <c r="J99" s="3">
         <v>8785</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2">
         <v>43199</v>
       </c>
@@ -3653,8 +4059,12 @@
       <c r="J100" s="3">
         <v>11007</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2">
         <v>43200</v>
       </c>
@@ -3685,8 +4095,12 @@
       <c r="J101" s="3">
         <v>11058</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2">
         <v>43201</v>
       </c>
@@ -3717,8 +4131,12 @@
       <c r="J102" s="3">
         <v>10944</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2">
         <v>43202</v>
       </c>
@@ -3749,8 +4167,12 @@
       <c r="J103" s="3">
         <v>10812</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2">
         <v>43203</v>
       </c>
@@ -3781,8 +4203,12 @@
       <c r="J104" s="3">
         <v>10842</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2">
         <v>43204</v>
       </c>
@@ -3813,8 +4239,12 @@
       <c r="J105" s="3">
         <v>10314</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2">
         <v>43205</v>
       </c>
@@ -3845,8 +4275,12 @@
       <c r="J106" s="3">
         <v>8761</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2">
         <v>43206</v>
       </c>
@@ -3877,8 +4311,12 @@
       <c r="J107" s="3">
         <v>11140</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2">
         <v>43207</v>
       </c>
@@ -3909,8 +4347,12 @@
       <c r="J108" s="3">
         <v>10260</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2">
         <v>43208</v>
       </c>
@@ -3941,8 +4383,12 @@
       <c r="J109" s="3">
         <v>11345</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2">
         <v>43209</v>
       </c>
@@ -3973,8 +4419,12 @@
       <c r="J110" s="3">
         <v>11037</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2">
         <v>43210</v>
       </c>
@@ -4005,8 +4455,12 @@
       <c r="J111" s="3">
         <v>11535</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2">
         <v>43211</v>
       </c>
@@ -4037,8 +4491,12 @@
       <c r="J112" s="3">
         <v>10476</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2">
         <v>43212</v>
       </c>
@@ -4069,8 +4527,12 @@
       <c r="J113" s="3">
         <v>9461</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2">
         <v>43213</v>
       </c>
@@ -4101,8 +4563,12 @@
       <c r="J114" s="3">
         <v>11214</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2">
         <v>43214</v>
       </c>
@@ -4133,8 +4599,12 @@
       <c r="J115" s="3">
         <v>11057</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2">
         <v>43215</v>
       </c>
@@ -4165,8 +4635,12 @@
       <c r="J116" s="3">
         <v>11256</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2">
         <v>43216</v>
       </c>
@@ -4197,8 +4671,12 @@
       <c r="J117" s="3">
         <v>11188</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2">
         <v>43217</v>
       </c>
@@ -4229,8 +4707,12 @@
       <c r="J118" s="3">
         <v>11128</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2">
         <v>43218</v>
       </c>
@@ -4261,8 +4743,12 @@
       <c r="J119" s="3">
         <v>10181</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2">
         <v>43219</v>
       </c>
@@ -4293,8 +4779,12 @@
       <c r="J120" s="3">
         <v>8752</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2">
         <v>43220</v>
       </c>
@@ -4325,8 +4815,12 @@
       <c r="J121" s="3">
         <v>11137</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2">
         <v>43221</v>
       </c>
@@ -4361,8 +4855,12 @@
         <f>C122-C152</f>
         <v>-2.25</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2">
         <v>43222</v>
       </c>
@@ -4393,8 +4891,12 @@
       <c r="J123" s="3">
         <v>11250</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2">
         <v>43223</v>
       </c>
@@ -4425,8 +4927,12 @@
       <c r="J124" s="3">
         <v>11144</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2">
         <v>43224</v>
       </c>
@@ -4457,8 +4963,12 @@
       <c r="J125" s="3">
         <v>11165</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2">
         <v>43225</v>
       </c>
@@ -4489,8 +4999,12 @@
       <c r="J126" s="3">
         <v>8133</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2">
         <v>43226</v>
       </c>
@@ -4521,8 +5035,12 @@
       <c r="J127" s="3">
         <v>8106</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2">
         <v>43227</v>
       </c>
@@ -4553,8 +5071,12 @@
       <c r="J128" s="3">
         <v>11089</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2">
         <v>43228</v>
       </c>
@@ -4585,8 +5107,12 @@
       <c r="J129" s="3">
         <v>11165</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2">
         <v>43229</v>
       </c>
@@ -4617,8 +5143,12 @@
       <c r="J130" s="3">
         <v>11132</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2">
         <v>43230</v>
       </c>
@@ -4649,8 +5179,12 @@
       <c r="J131" s="3">
         <v>10988</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M131">
+        <f t="shared" ref="M131:M194" si="2">I131-F131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2">
         <v>43231</v>
       </c>
@@ -4681,8 +5215,12 @@
       <c r="J132" s="3">
         <v>11127</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2">
         <v>43232</v>
       </c>
@@ -4713,8 +5251,12 @@
       <c r="J133" s="3">
         <v>8107</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2">
         <v>43233</v>
       </c>
@@ -4745,8 +5287,12 @@
       <c r="J134" s="3">
         <v>8109</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2">
         <v>43234</v>
       </c>
@@ -4777,8 +5323,12 @@
       <c r="J135" s="3">
         <v>11156</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2">
         <v>43235</v>
       </c>
@@ -4809,8 +5359,12 @@
       <c r="J136" s="3">
         <v>11279</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2">
         <v>43236</v>
       </c>
@@ -4841,8 +5395,12 @@
       <c r="J137" s="3">
         <v>11386</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2">
         <v>43237</v>
       </c>
@@ -4873,8 +5431,12 @@
       <c r="J138" s="3">
         <v>11121</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2">
         <v>43238</v>
       </c>
@@ -4905,8 +5467,12 @@
       <c r="J139" s="3">
         <v>11090</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2">
         <v>43239</v>
       </c>
@@ -4937,8 +5503,12 @@
       <c r="J140" s="3">
         <v>8147</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2">
         <v>43240</v>
       </c>
@@ -4969,8 +5539,12 @@
       <c r="J141" s="3">
         <v>8141</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2">
         <v>43241</v>
       </c>
@@ -5001,8 +5575,12 @@
       <c r="J142" s="3">
         <v>11168</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2">
         <v>43242</v>
       </c>
@@ -5033,8 +5611,12 @@
       <c r="J143" s="3">
         <v>11121</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2">
         <v>43243</v>
       </c>
@@ -5065,8 +5647,12 @@
       <c r="J144" s="3">
         <v>10923</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2">
         <v>43244</v>
       </c>
@@ -5097,8 +5683,12 @@
       <c r="J145" s="3">
         <v>11311</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2">
         <v>43245</v>
       </c>
@@ -5129,8 +5719,12 @@
       <c r="J146" s="3">
         <v>11322</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2">
         <v>43246</v>
       </c>
@@ -5161,8 +5755,12 @@
       <c r="J147" s="3">
         <v>7996</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2">
         <v>43247</v>
       </c>
@@ -5193,8 +5791,12 @@
       <c r="J148" s="3">
         <v>8014</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2">
         <v>43248</v>
       </c>
@@ -5225,8 +5827,12 @@
       <c r="J149" s="3">
         <v>8185</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2">
         <v>43249</v>
       </c>
@@ -5257,8 +5863,12 @@
       <c r="J150" s="3">
         <v>11108</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2">
         <v>43250</v>
       </c>
@@ -5289,8 +5899,12 @@
       <c r="J151" s="3">
         <v>11160</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2">
         <v>43251</v>
       </c>
@@ -5321,8 +5935,12 @@
       <c r="J152" s="3">
         <v>11188</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2">
         <v>43252</v>
       </c>
@@ -5357,8 +5975,12 @@
         <f>C153-C182</f>
         <v>1.6900000000000546</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2">
         <v>43253</v>
       </c>
@@ -5389,8 +6011,12 @@
       <c r="J154" s="3">
         <v>8867</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2">
         <v>43254</v>
       </c>
@@ -5421,8 +6047,12 @@
       <c r="J155" s="3">
         <v>8890</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2">
         <v>43255</v>
       </c>
@@ -5453,8 +6083,12 @@
       <c r="J156" s="3">
         <v>12668</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2">
         <v>43256</v>
       </c>
@@ -5485,8 +6119,12 @@
       <c r="J157" s="3">
         <v>12428</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2">
         <v>43257</v>
       </c>
@@ -5517,8 +6155,12 @@
       <c r="J158" s="3">
         <v>12480</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2">
         <v>43258</v>
       </c>
@@ -5549,8 +6191,12 @@
       <c r="J159" s="3">
         <v>12656</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2">
         <v>43259</v>
       </c>
@@ -5581,8 +6227,12 @@
       <c r="J160" s="3">
         <v>12493</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2">
         <v>43260</v>
       </c>
@@ -5613,8 +6263,12 @@
       <c r="J161" s="3">
         <v>8854</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2">
         <v>43261</v>
       </c>
@@ -5645,8 +6299,12 @@
       <c r="J162" s="3">
         <v>8838</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2">
         <v>43262</v>
       </c>
@@ -5677,8 +6335,12 @@
       <c r="J163" s="3">
         <v>12568</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2">
         <v>43263</v>
       </c>
@@ -5709,8 +6371,12 @@
       <c r="J164" s="3">
         <v>12731</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2">
         <v>43264</v>
       </c>
@@ -5741,8 +6407,12 @@
       <c r="J165" s="3">
         <v>12544</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2">
         <v>43265</v>
       </c>
@@ -5773,8 +6443,12 @@
       <c r="J166" s="3">
         <v>12605</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2">
         <v>43266</v>
       </c>
@@ -5805,8 +6479,12 @@
       <c r="J167" s="3">
         <v>12525</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2">
         <v>43267</v>
       </c>
@@ -5837,8 +6515,12 @@
       <c r="J168" s="3">
         <v>8848</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2">
         <v>43268</v>
       </c>
@@ -5869,8 +6551,12 @@
       <c r="J169" s="3">
         <v>8828</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2">
         <v>43269</v>
       </c>
@@ -5901,8 +6587,12 @@
       <c r="J170" s="3">
         <v>12569</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2">
         <v>43270</v>
       </c>
@@ -5933,8 +6623,12 @@
       <c r="J171" s="3">
         <v>12674</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2">
         <v>43271</v>
       </c>
@@ -5965,8 +6659,12 @@
       <c r="J172" s="3">
         <v>12449</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2">
         <v>43272</v>
       </c>
@@ -5997,8 +6695,12 @@
       <c r="J173" s="3">
         <v>12541</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2">
         <v>43273</v>
       </c>
@@ -6029,8 +6731,12 @@
       <c r="J174" s="3">
         <v>12594</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2">
         <v>43274</v>
       </c>
@@ -6061,8 +6767,12 @@
       <c r="J175" s="3">
         <v>8871</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2">
         <v>43275</v>
       </c>
@@ -6093,8 +6803,12 @@
       <c r="J176" s="3">
         <v>8829</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2">
         <v>43276</v>
       </c>
@@ -6125,8 +6839,12 @@
       <c r="J177" s="3">
         <v>12662</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2">
         <v>43277</v>
       </c>
@@ -6157,8 +6875,12 @@
       <c r="J178" s="3">
         <v>12459</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2">
         <v>43278</v>
       </c>
@@ -6189,8 +6911,12 @@
       <c r="J179" s="3">
         <v>12449</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2">
         <v>43279</v>
       </c>
@@ -6221,8 +6947,12 @@
       <c r="J180" s="3">
         <v>12380</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2">
         <v>43280</v>
       </c>
@@ -6253,8 +6983,12 @@
       <c r="J181" s="3">
         <v>12449</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2">
         <v>43281</v>
       </c>
@@ -6285,8 +7019,12 @@
       <c r="J182" s="3">
         <v>8799</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2">
         <v>43282</v>
       </c>
@@ -6321,8 +7059,12 @@
         <f>C183-C213</f>
         <v>6.0099999999997635</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2">
         <v>43283</v>
       </c>
@@ -6353,8 +7095,12 @@
       <c r="J184" s="3">
         <v>13723</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2">
         <v>43284</v>
       </c>
@@ -6385,8 +7131,12 @@
       <c r="J185" s="3">
         <v>13720</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2">
         <v>43285</v>
       </c>
@@ -6417,8 +7167,12 @@
       <c r="J186" s="3">
         <v>9995</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2">
         <v>43286</v>
       </c>
@@ -6449,8 +7203,12 @@
       <c r="J187" s="3">
         <v>13669</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2">
         <v>43287</v>
       </c>
@@ -6481,8 +7239,12 @@
       <c r="J188" s="3">
         <v>13744</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2">
         <v>43288</v>
       </c>
@@ -6513,8 +7275,12 @@
       <c r="J189" s="3">
         <v>10075</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2">
         <v>43289</v>
       </c>
@@ -6545,8 +7311,12 @@
       <c r="J190" s="3">
         <v>10013</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2">
         <v>43290</v>
       </c>
@@ -6577,8 +7347,12 @@
       <c r="J191" s="3">
         <v>13682</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2">
         <v>43291</v>
       </c>
@@ -6609,8 +7383,12 @@
       <c r="J192" s="3">
         <v>13600</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2">
         <v>43292</v>
       </c>
@@ -6641,8 +7419,12 @@
       <c r="J193" s="3">
         <v>13638</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2">
         <v>43293</v>
       </c>
@@ -6673,8 +7455,12 @@
       <c r="J194" s="3">
         <v>13541</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2">
         <v>43294</v>
       </c>
@@ -6705,8 +7491,12 @@
       <c r="J195" s="3">
         <v>13638</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M195">
+        <f t="shared" ref="M195:M246" si="3">I195-F195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2">
         <v>43295</v>
       </c>
@@ -6737,8 +7527,12 @@
       <c r="J196" s="3">
         <v>9949</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2">
         <v>43296</v>
       </c>
@@ -6769,8 +7563,12 @@
       <c r="J197" s="3">
         <v>9942</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2">
         <v>43297</v>
       </c>
@@ -6801,8 +7599,12 @@
       <c r="J198" s="3">
         <v>13644</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2">
         <v>43298</v>
       </c>
@@ -6833,8 +7635,12 @@
       <c r="J199" s="3">
         <v>13535</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2">
         <v>43299</v>
       </c>
@@ -6865,8 +7671,12 @@
       <c r="J200" s="3">
         <v>13537</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2">
         <v>43300</v>
       </c>
@@ -6897,8 +7707,12 @@
       <c r="J201" s="3">
         <v>13569</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2">
         <v>43301</v>
       </c>
@@ -6929,8 +7743,12 @@
       <c r="J202" s="3">
         <v>13372</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2">
         <v>43302</v>
       </c>
@@ -6961,8 +7779,12 @@
       <c r="J203" s="3">
         <v>9910</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2">
         <v>43303</v>
       </c>
@@ -6993,8 +7815,12 @@
       <c r="J204" s="3">
         <v>9962</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2">
         <v>43304</v>
       </c>
@@ -7025,8 +7851,12 @@
       <c r="J205" s="3">
         <v>13619</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2">
         <v>43305</v>
       </c>
@@ -7057,8 +7887,12 @@
       <c r="J206" s="3">
         <v>13483</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2">
         <v>43306</v>
       </c>
@@ -7089,8 +7923,12 @@
       <c r="J207" s="3">
         <v>13395</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2">
         <v>43307</v>
       </c>
@@ -7121,8 +7959,12 @@
       <c r="J208" s="3">
         <v>13382</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2">
         <v>43308</v>
       </c>
@@ -7153,8 +7995,12 @@
       <c r="J209" s="3">
         <v>13199</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2">
         <v>43309</v>
       </c>
@@ -7185,8 +8031,12 @@
       <c r="J210" s="3">
         <v>9780</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2">
         <v>43310</v>
       </c>
@@ -7217,8 +8067,12 @@
       <c r="J211" s="3">
         <v>9813</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2">
         <v>43311</v>
       </c>
@@ -7249,8 +8103,12 @@
       <c r="J212" s="3">
         <v>13131</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2">
         <v>43312</v>
       </c>
@@ -7281,8 +8139,12 @@
       <c r="J213" s="3">
         <v>13407</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2">
         <v>43313</v>
       </c>
@@ -7317,8 +8179,12 @@
         <f>C214-C244</f>
         <v>6.4400000000000546</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2">
         <v>43314</v>
       </c>
@@ -7349,8 +8215,12 @@
       <c r="J215" s="3">
         <v>13729</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2">
         <v>43315</v>
       </c>
@@ -7381,8 +8251,12 @@
       <c r="J216" s="3">
         <v>13649</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2">
         <v>43316</v>
       </c>
@@ -7413,8 +8287,12 @@
       <c r="J217" s="3">
         <v>10064</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2">
         <v>43317</v>
       </c>
@@ -7445,8 +8323,12 @@
       <c r="J218" s="3">
         <v>10002</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2">
         <v>43318</v>
       </c>
@@ -7477,8 +8359,12 @@
       <c r="J219" s="3">
         <v>13653</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2">
         <v>43319</v>
       </c>
@@ -7509,8 +8395,12 @@
       <c r="J220" s="3">
         <v>13741</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2">
         <v>43320</v>
       </c>
@@ -7541,8 +8431,12 @@
       <c r="J221" s="3">
         <v>13612</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2">
         <v>43321</v>
       </c>
@@ -7573,8 +8467,12 @@
       <c r="J222" s="3">
         <v>13673</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2">
         <v>43322</v>
       </c>
@@ -7605,8 +8503,12 @@
       <c r="J223" s="3">
         <v>13678</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2">
         <v>43323</v>
       </c>
@@ -7637,8 +8539,12 @@
       <c r="J224" s="3">
         <v>10033</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2">
         <v>43324</v>
       </c>
@@ -7669,8 +8575,12 @@
       <c r="J225" s="3">
         <v>8351</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2">
         <v>43325</v>
       </c>
@@ -7701,8 +8611,12 @@
       <c r="J226" s="3">
         <v>13710</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2">
         <v>43326</v>
       </c>
@@ -7733,8 +8647,12 @@
       <c r="J227" s="3">
         <v>13516</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2">
         <v>43327</v>
       </c>
@@ -7765,8 +8683,12 @@
       <c r="J228" s="3">
         <v>13688</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2">
         <v>43328</v>
       </c>
@@ -7797,8 +8719,12 @@
       <c r="J229" s="3">
         <v>13668</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2">
         <v>43329</v>
       </c>
@@ -7829,8 +8755,12 @@
       <c r="J230" s="3">
         <v>13630</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2">
         <v>43330</v>
       </c>
@@ -7861,8 +8791,12 @@
       <c r="J231" s="3">
         <v>10019</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2">
         <v>43331</v>
       </c>
@@ -7893,8 +8827,12 @@
       <c r="J232" s="3">
         <v>9975</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2">
         <v>43332</v>
       </c>
@@ -7925,8 +8863,12 @@
       <c r="J233" s="3">
         <v>13698</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2">
         <v>43333</v>
       </c>
@@ -7957,8 +8899,12 @@
       <c r="J234" s="3">
         <v>13680</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2">
         <v>43334</v>
       </c>
@@ -7989,8 +8935,12 @@
       <c r="J235" s="3">
         <v>13748</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2">
         <v>43335</v>
       </c>
@@ -8021,8 +8971,12 @@
       <c r="J236" s="3">
         <v>13845</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2">
         <v>43336</v>
       </c>
@@ -8053,8 +9007,12 @@
       <c r="J237" s="3">
         <v>13691</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2">
         <v>43337</v>
       </c>
@@ -8085,8 +9043,12 @@
       <c r="J238" s="3">
         <v>9951</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2">
         <v>43338</v>
       </c>
@@ -8117,8 +9079,12 @@
       <c r="J239" s="3">
         <v>9944</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2">
         <v>43339</v>
       </c>
@@ -8149,8 +9115,12 @@
       <c r="J240" s="3">
         <v>13701</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2">
         <v>43340</v>
       </c>
@@ -8181,8 +9151,12 @@
       <c r="J241" s="3">
         <v>13713</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2">
         <v>43341</v>
       </c>
@@ -8213,8 +9187,12 @@
       <c r="J242" s="3">
         <v>13632</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2">
         <v>43342</v>
       </c>
@@ -8245,8 +9223,12 @@
       <c r="J243" s="3">
         <v>13634</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2">
         <v>43343</v>
       </c>
@@ -8277,8 +9259,12 @@
       <c r="J244" s="3">
         <v>13601</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2">
         <v>43344</v>
       </c>
@@ -8309,12 +9295,16 @@
       <c r="J245" s="3">
         <v>9438</v>
       </c>
-      <c r="L245">
-        <f>C245-C274</f>
-        <v>4.6399999999998727</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L245" t="e">
+        <f>C245-L1CaC274</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2">
         <v>43345</v>
       </c>
@@ -8345,8 +9335,12 @@
       <c r="J246" s="3">
         <v>8614</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2">
         <v>43346</v>
       </c>
@@ -8378,7 +9372,7 @@
         <v>8693</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2">
         <v>43347</v>
       </c>
@@ -8410,7 +9404,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2">
         <v>43348</v>
       </c>
@@ -8442,7 +9436,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2">
         <v>43349</v>
       </c>
@@ -8474,7 +9468,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2">
         <v>43350</v>
       </c>
@@ -8506,7 +9500,7 @@
         <v>10031</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2">
         <v>43351</v>
       </c>
@@ -8538,7 +9532,7 @@
         <v>9434</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2">
         <v>43352</v>
       </c>
@@ -8570,7 +9564,7 @@
         <v>8562</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2">
         <v>43353</v>
       </c>
@@ -8602,7 +9596,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2">
         <v>43354</v>
       </c>
@@ -8634,7 +9628,7 @@
         <v>10087</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2">
         <v>43355</v>
       </c>
